--- a/data/trans_dic/P23_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares</t>
+          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14,28%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>15,84%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,23; 35,01</t>
+          <t>7,58; 19,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,72; 27,56</t>
+          <t>13,27; 30,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,43; 18,17</t>
+          <t>9,24; 17,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,77; 20,84</t>
+          <t>11,5; 27,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,19; 18,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,78; 21,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,6; 18,56</t>
+          <t>9,37; 21,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,65; 21,7</t>
+          <t>12,18; 20,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,03; 23,88</t>
+          <t>12,01; 18,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,78; 22,18</t>
+          <t>8,8; 20,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,57; 17,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,33; 20,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>9,94; 18,42</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>13,84; 23,06</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>11,65; 17,3</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>11,51; 21,07</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>12,8%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 14,57</t>
+          <t>8,02; 15,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,89; 15,94</t>
+          <t>11,03; 19,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,94; 19,32</t>
+          <t>12,39; 20,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,28; 19,17</t>
+          <t>8,8; 16,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,77; 15,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,7; 17,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,9; 17,64</t>
+          <t>9,2; 18,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 19,13</t>
+          <t>11,72; 17,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,07; 14,14</t>
+          <t>11,79; 18,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 15,29</t>
+          <t>9,77; 17,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,71; 17,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,04; 17,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,57; 14,98</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>12,04; 17,1</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,81; 17,81</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>10,19; 15,74</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10,99%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>15,01%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>15,2%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 13,68</t>
+          <t>6,04; 15,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,6; 16,05</t>
+          <t>7,49; 13,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 15,98</t>
+          <t>9,36; 16,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 18,88</t>
+          <t>7,05; 15,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,54; 15,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,41; 22,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,93; 21,31</t>
+          <t>8,86; 16,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,74; 18,97</t>
+          <t>15,75; 23,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,49</t>
+          <t>15,18; 21,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,91; 18,17</t>
+          <t>6,81; 13,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,85; 17,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,94; 17,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>8,58; 14,77</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>12,84; 17,6</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>13,05; 17,69</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>7,5; 12,77</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,3%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>14,88%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>12,74%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,48; 15,95</t>
+          <t>10,98; 18,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,57; 16,33</t>
+          <t>9,78; 20,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,76; 16,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,88; 17,73</t>
+          <t>8,54; 15,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,84; 14,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,58; 18,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,85; 17,63</t>
+          <t>9,89; 15,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,78; 18,24</t>
+          <t>12,3; 20,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,23; 14,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,66; 16,66</t>
+          <t>10,08; 17,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,39; 16,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,81; 17,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>11,03; 15,93</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>11,88; 18,8</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>10,3; 15,44</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13,95%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12,61%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16,35%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>12,42%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>15,13%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>14,92%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10,3; 14,68</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11,57; 16,5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12,0; 16,65</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10,56; 15,09</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10,73; 14,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14,69; 18,19</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14,22; 17,89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10,77; 14,76</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>11,05; 14,08</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 16,7</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>13,55; 16,64</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>11,18; 14,25</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares (tasa de respuesta: 99,72%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>42225</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>97348</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>95240</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>82733</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>60586</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>100498</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>134158</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>89020</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>102811</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>197846</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>229399</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>171753</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25468; 65587</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>69148; 160731</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>66713; 127938</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>50771; 120592</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39512; 90019</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>76237; 129118</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>106252; 167843</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>56596; 130585</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>75286; 139598</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>158811; 264598</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>187127; 278026</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>124841; 228524</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>101497</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>170285</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>250899</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>132144</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>125347</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>179445</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>219483</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>141528</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>226844</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>349730</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>470382</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>273672</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>74595; 141778</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>132066; 230969</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>200388; 334388</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>93054; 175630</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>91743; 181106</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>144590; 214462</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>177797; 272081</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>105619; 188757</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>184525; 288717</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>292660; 415631</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>400266; 556576</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>217900; 336742</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>67974</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>85245</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>132473</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>84423</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>95264</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>181881</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>210219</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>86639</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>163238</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>267127</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>342692</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>171062</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>43255; 108916</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>63367; 115085</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>102113; 175692</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>58429; 128495</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>68163; 123743</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>147159; 217326</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>176550; 251338</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>60935; 119329</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>127327; 219289</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>228626; 313320</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>294265; 398908</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>129304; 220115</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>206383</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>129711</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>169309</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>118458</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>133329</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>375693</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>238837</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>263039</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>158128; 266597</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>83150; 172653</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>93330; 171195</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>136929; 212386</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>92895; 152812</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>98009; 172608</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>311548; 449951</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>190786; 301863</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>212773; 318878</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>457.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>459.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>418080</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>473257</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>478612</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>429011</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>450506</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>580282</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>563860</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>450516</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>868586</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1053539</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1042472</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>879526</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>352294; 502295</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>395031; 563230</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>411547; 571236</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>361319; 516248</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>383411; 521551</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>521520; 645783</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>505563; 636156</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>386819; 530001</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>772629; 985048</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>953142; 1163154</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>946850; 1162439</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>784192; 998917</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
